--- a/SchemeIBMETR/SchemeAIBE.xlsx
+++ b/SchemeIBMETR/SchemeAIBE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,60 +446,65 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>roundCount</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>isSystemValid</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>isSchemeCorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Setup (s)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Extract (s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Encrypt (s)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Decrypt (s)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Setup (B)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Extract (B)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Encrypt (B)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Decrypt (B)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Pvk_Id (B)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -514,44 +519,43 @@
       <c r="B2" t="n">
         <v>128</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0.006131660938262939</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00844358205795288</v>
+        <v>0.005930138</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006910812854766846</v>
+        <v>0.008047676</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003009569644927978</v>
+        <v>0.006680596</v>
       </c>
       <c r="I2" t="n">
-        <v>17091584</v>
+        <v>0.002848268</v>
       </c>
       <c r="J2" t="n">
-        <v>17091584</v>
+        <v>17236787.2</v>
       </c>
       <c r="K2" t="n">
-        <v>17140326.4</v>
+        <v>17236787.2</v>
       </c>
       <c r="L2" t="n">
-        <v>17140531.2</v>
+        <v>17242316.8</v>
       </c>
       <c r="M2" t="n">
+        <v>17287577.6</v>
+      </c>
+      <c r="N2" t="n">
         <v>80</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>88</v>
       </c>
     </row>
@@ -564,44 +568,43 @@
       <c r="B3" t="n">
         <v>160</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006070804595947265</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008176195621490478</v>
+        <v>0.006154358</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006680643558502198</v>
+        <v>0.008313572</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002924978733062744</v>
+        <v>0.006794679</v>
       </c>
       <c r="I3" t="n">
-        <v>17309696</v>
+        <v>0.002935338</v>
       </c>
       <c r="J3" t="n">
-        <v>17309696</v>
+        <v>17391616</v>
       </c>
       <c r="K3" t="n">
-        <v>17309696</v>
+        <v>17391616</v>
       </c>
       <c r="L3" t="n">
-        <v>17309696</v>
+        <v>17391616</v>
       </c>
       <c r="M3" t="n">
+        <v>17391616</v>
+      </c>
+      <c r="N3" t="n">
         <v>80</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>88</v>
       </c>
     </row>
@@ -614,44 +617,43 @@
       <c r="B4" t="n">
         <v>224</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>0.006401252746582031</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008548605442047118</v>
+        <v>0.006088567</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007038605213165283</v>
+        <v>0.008310997000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003018593788146973</v>
+        <v>0.006939733</v>
       </c>
       <c r="I4" t="n">
-        <v>17309696</v>
+        <v>0.002926743</v>
       </c>
       <c r="J4" t="n">
-        <v>17309696</v>
+        <v>17391616</v>
       </c>
       <c r="K4" t="n">
-        <v>17309696</v>
+        <v>17391616</v>
       </c>
       <c r="L4" t="n">
-        <v>17309696</v>
+        <v>17391616</v>
       </c>
       <c r="M4" t="n">
+        <v>17391616</v>
+      </c>
+      <c r="N4" t="n">
         <v>80</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>88</v>
       </c>
     </row>
@@ -664,44 +666,43 @@
       <c r="B5" t="n">
         <v>256</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>0.006598353385925293</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.008959221839904784</v>
+        <v>0.006283724</v>
       </c>
       <c r="G5" t="n">
-        <v>0.007279860973358154</v>
+        <v>0.008261144</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003193676471710205</v>
+        <v>0.006801677</v>
       </c>
       <c r="I5" t="n">
-        <v>17309696</v>
+        <v>0.002909243</v>
       </c>
       <c r="J5" t="n">
-        <v>17309696</v>
+        <v>17391616</v>
       </c>
       <c r="K5" t="n">
-        <v>17309696</v>
+        <v>17391616</v>
       </c>
       <c r="L5" t="n">
-        <v>17309696</v>
+        <v>17391616</v>
       </c>
       <c r="M5" t="n">
+        <v>17391616</v>
+      </c>
+      <c r="N5" t="n">
         <v>80</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>88</v>
       </c>
     </row>
@@ -714,44 +715,43 @@
       <c r="B6" t="n">
         <v>384</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00654289722442627</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008956241607666015</v>
+        <v>0.00616343</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007436919212341309</v>
+        <v>0.008422697</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003142094612121582</v>
+        <v>0.006927955</v>
       </c>
       <c r="I6" t="n">
-        <v>17309696</v>
+        <v>0.003017271</v>
       </c>
       <c r="J6" t="n">
-        <v>17309696</v>
+        <v>17391616</v>
       </c>
       <c r="K6" t="n">
-        <v>17309696</v>
+        <v>17391616</v>
       </c>
       <c r="L6" t="n">
-        <v>17309696</v>
+        <v>17391616</v>
       </c>
       <c r="M6" t="n">
+        <v>17391616</v>
+      </c>
+      <c r="N6" t="n">
         <v>80</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>88</v>
       </c>
     </row>
@@ -764,44 +764,43 @@
       <c r="B7" t="n">
         <v>512</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006592381000518799</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00886303186416626</v>
+        <v>0.006241477</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007239425182342529</v>
+        <v>0.008450532</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003090286254882813</v>
+        <v>0.006804407</v>
       </c>
       <c r="I7" t="n">
-        <v>17309696</v>
+        <v>0.002949333</v>
       </c>
       <c r="J7" t="n">
-        <v>17309696</v>
+        <v>17391616</v>
       </c>
       <c r="K7" t="n">
-        <v>17309696</v>
+        <v>17391616</v>
       </c>
       <c r="L7" t="n">
-        <v>17309696</v>
+        <v>17391616</v>
       </c>
       <c r="M7" t="n">
+        <v>17391616</v>
+      </c>
+      <c r="N7" t="n">
         <v>80</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>88</v>
       </c>
     </row>

--- a/SchemeIBMETR/SchemeAIBE.xlsx
+++ b/SchemeIBMETR/SchemeAIBE.xlsx
@@ -529,28 +529,28 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005930138</v>
+        <v>0.006558406</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008047676</v>
+        <v>0.009104371</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006680596</v>
+        <v>0.00752728</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002848268</v>
+        <v>0.003220928</v>
       </c>
       <c r="J2" t="n">
-        <v>17236787.2</v>
+        <v>17180262.4</v>
       </c>
       <c r="K2" t="n">
-        <v>17236787.2</v>
+        <v>17180262.4</v>
       </c>
       <c r="L2" t="n">
-        <v>17242316.8</v>
+        <v>17234739.2</v>
       </c>
       <c r="M2" t="n">
-        <v>17287577.6</v>
+        <v>17234739.2</v>
       </c>
       <c r="N2" t="n">
         <v>80</v>
@@ -578,28 +578,28 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006154358</v>
+        <v>0.006784952</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008313572</v>
+        <v>0.009116900000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.006794679</v>
+        <v>0.007530153</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002935338</v>
+        <v>0.00320015</v>
       </c>
       <c r="J3" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="K3" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="L3" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="M3" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="N3" t="n">
         <v>80</v>
@@ -627,28 +627,28 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006088567</v>
+        <v>0.007093036</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008310997000000001</v>
+        <v>0.009548651999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.006939733</v>
+        <v>0.007728267</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002926743</v>
+        <v>0.003333175</v>
       </c>
       <c r="J4" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="K4" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="L4" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="M4" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="N4" t="n">
         <v>80</v>
@@ -676,28 +676,28 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006283724</v>
+        <v>0.006747448</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008261144</v>
+        <v>0.009072936</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006801677</v>
+        <v>0.007552624</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002909243</v>
+        <v>0.003232372</v>
       </c>
       <c r="J5" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="K5" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="L5" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="M5" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="N5" t="n">
         <v>80</v>
@@ -725,28 +725,28 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00616343</v>
+        <v>0.006790686</v>
       </c>
       <c r="G6" t="n">
-        <v>0.008422697</v>
+        <v>0.009349358</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006927955</v>
+        <v>0.007756341</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003017271</v>
+        <v>0.003257442</v>
       </c>
       <c r="J6" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="K6" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="L6" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="M6" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="N6" t="n">
         <v>80</v>
@@ -774,28 +774,28 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006241477</v>
+        <v>0.00683949</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008450532</v>
+        <v>0.009250903</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006804407</v>
+        <v>0.007586169</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002949333</v>
+        <v>0.003323519</v>
       </c>
       <c r="J7" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="K7" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="L7" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="M7" t="n">
-        <v>17391616</v>
+        <v>17485824</v>
       </c>
       <c r="N7" t="n">
         <v>80</v>

--- a/SchemeIBMETR/SchemeAIBE.xlsx
+++ b/SchemeIBMETR/SchemeAIBE.xlsx
@@ -529,28 +529,28 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006558406</v>
+        <v>0.006484687</v>
       </c>
       <c r="G2" t="n">
-        <v>0.009104371</v>
+        <v>0.008914017999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00752728</v>
+        <v>0.007315147</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003220928</v>
+        <v>0.003108668</v>
       </c>
       <c r="J2" t="n">
-        <v>17180262.4</v>
+        <v>17200128</v>
       </c>
       <c r="K2" t="n">
-        <v>17180262.4</v>
+        <v>17200128</v>
       </c>
       <c r="L2" t="n">
-        <v>17234739.2</v>
+        <v>17244979.2</v>
       </c>
       <c r="M2" t="n">
-        <v>17234739.2</v>
+        <v>17245184</v>
       </c>
       <c r="N2" t="n">
         <v>80</v>
@@ -578,28 +578,28 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006784952</v>
+        <v>0.006101954</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009116900000000001</v>
+        <v>0.008368051</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007530153</v>
+        <v>0.007038295</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00320015</v>
+        <v>0.003025472</v>
       </c>
       <c r="J3" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="K3" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="L3" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="M3" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="N3" t="n">
         <v>80</v>
@@ -627,28 +627,28 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007093036</v>
+        <v>0.006296873</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009548651999999999</v>
+        <v>0.008918654999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007728267</v>
+        <v>0.007247984</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003333175</v>
+        <v>0.00304718</v>
       </c>
       <c r="J4" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="K4" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="L4" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="M4" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="N4" t="n">
         <v>80</v>
@@ -676,28 +676,28 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006747448</v>
+        <v>0.006316555</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009072936</v>
+        <v>0.008798039000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007552624</v>
+        <v>0.007196081</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003232372</v>
+        <v>0.003053236</v>
       </c>
       <c r="J5" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="K5" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="L5" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="M5" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="N5" t="n">
         <v>80</v>
@@ -725,28 +725,28 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006790686</v>
+        <v>0.006958568</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009349358</v>
+        <v>0.009537995000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007756341</v>
+        <v>0.007755911</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003257442</v>
+        <v>0.003300738</v>
       </c>
       <c r="J6" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="K6" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="L6" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="M6" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="N6" t="n">
         <v>80</v>
@@ -774,28 +774,28 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00683949</v>
+        <v>0.006526923</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009250903</v>
+        <v>0.008781265999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007586169</v>
+        <v>0.007243025</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003323519</v>
+        <v>0.003078175</v>
       </c>
       <c r="J7" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="K7" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="L7" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="M7" t="n">
-        <v>17485824</v>
+        <v>17412096</v>
       </c>
       <c r="N7" t="n">
         <v>80</v>

--- a/SchemeIBMETR/SchemeAIBE.xlsx
+++ b/SchemeIBMETR/SchemeAIBE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,10 +501,20 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>mpk (B)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>msk (B)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Pvk_Id (B)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -529,33 +539,39 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006484687</v>
+        <v>0.00698303</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008914017999999999</v>
+        <v>0.009676647</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007315147</v>
+        <v>0.007902335999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003108668</v>
+        <v>0.003422403</v>
       </c>
       <c r="J2" t="n">
-        <v>17200128</v>
+        <v>17255014.4</v>
       </c>
       <c r="K2" t="n">
-        <v>17200128</v>
+        <v>17295974.4</v>
       </c>
       <c r="L2" t="n">
-        <v>17244979.2</v>
+        <v>17303756.8</v>
       </c>
       <c r="M2" t="n">
-        <v>17245184</v>
+        <v>17303756.8</v>
       </c>
       <c r="N2" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="O2" t="n">
+        <v>80</v>
+      </c>
+      <c r="P2" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q2" t="n">
         <v>88</v>
       </c>
     </row>
@@ -578,33 +594,39 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006101954</v>
+        <v>0.007110918</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008368051</v>
+        <v>0.009812868000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007038295</v>
+        <v>0.007969439</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003025472</v>
+        <v>0.003394818</v>
       </c>
       <c r="J3" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="K3" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="L3" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="M3" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="N3" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="O3" t="n">
+        <v>80</v>
+      </c>
+      <c r="P3" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q3" t="n">
         <v>88</v>
       </c>
     </row>
@@ -627,33 +649,39 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006296873</v>
+        <v>0.006758285</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008918654999999999</v>
+        <v>0.009335876</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007247984</v>
+        <v>0.007598627</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00304718</v>
+        <v>0.003344297</v>
       </c>
       <c r="J4" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="K4" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="L4" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="M4" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="N4" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="O4" t="n">
+        <v>80</v>
+      </c>
+      <c r="P4" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q4" t="n">
         <v>88</v>
       </c>
     </row>
@@ -676,33 +704,39 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006316555</v>
+        <v>0.006930578</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008798039000000001</v>
+        <v>0.009471095000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007196081</v>
+        <v>0.007714105</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003053236</v>
+        <v>0.003312039</v>
       </c>
       <c r="J5" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="K5" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="L5" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="M5" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="N5" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="O5" t="n">
+        <v>80</v>
+      </c>
+      <c r="P5" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q5" t="n">
         <v>88</v>
       </c>
     </row>
@@ -725,33 +759,39 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006958568</v>
+        <v>0.006852961</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009537995000000001</v>
+        <v>0.009466492999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007755911</v>
+        <v>0.007712722</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003300738</v>
+        <v>0.003345704</v>
       </c>
       <c r="J6" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="K6" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="L6" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="M6" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="N6" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="O6" t="n">
+        <v>80</v>
+      </c>
+      <c r="P6" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q6" t="n">
         <v>88</v>
       </c>
     </row>
@@ -774,33 +814,39 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006526923</v>
+        <v>0.0066414</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008781265999999999</v>
+        <v>0.009160531</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007243025</v>
+        <v>0.007415426</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003078175</v>
+        <v>0.003196883</v>
       </c>
       <c r="J7" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="K7" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="L7" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="M7" t="n">
-        <v>17412096</v>
+        <v>17399808</v>
       </c>
       <c r="N7" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="O7" t="n">
+        <v>80</v>
+      </c>
+      <c r="P7" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q7" t="n">
         <v>88</v>
       </c>
     </row>

--- a/SchemeIBMETR/SchemeAIBE.xlsx
+++ b/SchemeIBMETR/SchemeAIBE.xlsx
@@ -539,28 +539,28 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00698303</v>
+        <v>0.006386292</v>
       </c>
       <c r="G2" t="n">
-        <v>0.009676647</v>
+        <v>0.008769178000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007902335999999999</v>
+        <v>0.007156134</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003422403</v>
+        <v>0.003071237</v>
       </c>
       <c r="J2" t="n">
-        <v>17255014.4</v>
+        <v>17366835.2</v>
       </c>
       <c r="K2" t="n">
-        <v>17295974.4</v>
+        <v>17366835.2</v>
       </c>
       <c r="L2" t="n">
-        <v>17303756.8</v>
+        <v>17417830.4</v>
       </c>
       <c r="M2" t="n">
-        <v>17303756.8</v>
+        <v>17418444.8</v>
       </c>
       <c r="N2" t="n">
         <v>104</v>
@@ -594,28 +594,28 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007110918</v>
+        <v>0.006663299</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009812868000000001</v>
+        <v>0.009098744000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007969439</v>
+        <v>0.007424664</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003394818</v>
+        <v>0.003173292</v>
       </c>
       <c r="J3" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="K3" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="L3" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="M3" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="N3" t="n">
         <v>104</v>
@@ -649,28 +649,28 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006758285</v>
+        <v>0.006805551</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009335876</v>
+        <v>0.009360969</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007598627</v>
+        <v>0.007693017</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003344297</v>
+        <v>0.003255093</v>
       </c>
       <c r="J4" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="K4" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="L4" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="M4" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="N4" t="n">
         <v>104</v>
@@ -704,28 +704,28 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006930578</v>
+        <v>0.006514156</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009471095000000001</v>
+        <v>0.008908677</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007714105</v>
+        <v>0.007199335</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003312039</v>
+        <v>0.003081119</v>
       </c>
       <c r="J5" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="K5" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="L5" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="M5" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="N5" t="n">
         <v>104</v>
@@ -759,28 +759,28 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006852961</v>
+        <v>0.006310892</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009466492999999999</v>
+        <v>0.008702958</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007712722</v>
+        <v>0.007041287</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003345704</v>
+        <v>0.003036237</v>
       </c>
       <c r="J6" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="K6" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="L6" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="M6" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="N6" t="n">
         <v>104</v>
@@ -814,28 +814,28 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0066414</v>
+        <v>0.00662539</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009160531</v>
+        <v>0.008949660999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007415426</v>
+        <v>0.007302356</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003196883</v>
+        <v>0.003132248</v>
       </c>
       <c r="J7" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="K7" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="L7" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="M7" t="n">
-        <v>17399808</v>
+        <v>17530880</v>
       </c>
       <c r="N7" t="n">
         <v>104</v>

--- a/SchemeIBMETR/SchemeAIBE.xlsx
+++ b/SchemeIBMETR/SchemeAIBE.xlsx
@@ -539,28 +539,28 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006386292</v>
+        <v>0.007007131</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008769178000000001</v>
+        <v>0.009488172</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007156134</v>
+        <v>0.008254628</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003071237</v>
+        <v>0.003744328</v>
       </c>
       <c r="J2" t="n">
-        <v>17366835.2</v>
+        <v>17311129.6</v>
       </c>
       <c r="K2" t="n">
-        <v>17366835.2</v>
+        <v>17311129.6</v>
       </c>
       <c r="L2" t="n">
-        <v>17417830.4</v>
+        <v>17361715.2</v>
       </c>
       <c r="M2" t="n">
-        <v>17418444.8</v>
+        <v>17361920</v>
       </c>
       <c r="N2" t="n">
         <v>104</v>
@@ -594,28 +594,28 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006663299</v>
+        <v>0.007319074</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009098744000000001</v>
+        <v>0.009726446999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007424664</v>
+        <v>0.008014459</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003173292</v>
+        <v>0.003400094</v>
       </c>
       <c r="J3" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="K3" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="L3" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="M3" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="N3" t="n">
         <v>104</v>
@@ -649,28 +649,28 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006805551</v>
+        <v>0.00729575</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009360969</v>
+        <v>0.010540256</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007693017</v>
+        <v>0.008018457</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003255093</v>
+        <v>0.003492949</v>
       </c>
       <c r="J4" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="K4" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="L4" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="M4" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="N4" t="n">
         <v>104</v>
@@ -704,28 +704,28 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006514156</v>
+        <v>0.007304546</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008908677</v>
+        <v>0.01050971</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007199335</v>
+        <v>0.008079905</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003081119</v>
+        <v>0.003462612</v>
       </c>
       <c r="J5" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="K5" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="L5" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="M5" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="N5" t="n">
         <v>104</v>
@@ -759,28 +759,28 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006310892</v>
+        <v>0.007148593</v>
       </c>
       <c r="G6" t="n">
-        <v>0.008702958</v>
+        <v>0.010316851</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007041287</v>
+        <v>0.007938107999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003036237</v>
+        <v>0.003424838</v>
       </c>
       <c r="J6" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="K6" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="L6" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="M6" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="N6" t="n">
         <v>104</v>
@@ -814,28 +814,28 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00662539</v>
+        <v>0.007196649</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008949660999999999</v>
+        <v>0.009791606</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007302356</v>
+        <v>0.007941347</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003132248</v>
+        <v>0.003359475</v>
       </c>
       <c r="J7" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="K7" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="L7" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="M7" t="n">
-        <v>17530880</v>
+        <v>17391616</v>
       </c>
       <c r="N7" t="n">
         <v>104</v>

--- a/SchemeIBMETR/SchemeAIBE.xlsx
+++ b/SchemeIBMETR/SchemeAIBE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,20 +501,35 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>elementOfZR (B)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>elementOfG1G2 (B)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>elementOfGT (B)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>mpk (B)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>msk (B)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Pvk_Id (B)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -539,40 +554,49 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007007131</v>
+        <v>0.00764946</v>
       </c>
       <c r="G2" t="n">
-        <v>0.009488172</v>
+        <v>0.009722266</v>
       </c>
       <c r="H2" t="n">
-        <v>0.008254628</v>
+        <v>0.008199412</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003744328</v>
+        <v>0.003350691</v>
       </c>
       <c r="J2" t="n">
-        <v>17311129.6</v>
+        <v>17270374.4</v>
       </c>
       <c r="K2" t="n">
-        <v>17311129.6</v>
+        <v>17314406.4</v>
       </c>
       <c r="L2" t="n">
-        <v>17361715.2</v>
+        <v>17319116.8</v>
       </c>
       <c r="M2" t="n">
-        <v>17361920</v>
+        <v>17319116.8</v>
       </c>
       <c r="N2" t="n">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="O2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P2" t="n">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="Q2" t="n">
-        <v>88</v>
+        <v>804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>150</v>
+      </c>
+      <c r="S2" t="n">
+        <v>450</v>
+      </c>
+      <c r="T2" t="n">
+        <v>624</v>
       </c>
     </row>
     <row r="3">
@@ -594,40 +618,49 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007319074</v>
+        <v>0.007306656</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009726446999999999</v>
+        <v>0.009689474</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008014459</v>
+        <v>0.007887475</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003400094</v>
+        <v>0.00330478</v>
       </c>
       <c r="J3" t="n">
-        <v>17391616</v>
+        <v>17444864</v>
       </c>
       <c r="K3" t="n">
-        <v>17391616</v>
+        <v>17444864</v>
       </c>
       <c r="L3" t="n">
-        <v>17391616</v>
+        <v>17449574.4</v>
       </c>
       <c r="M3" t="n">
-        <v>17391616</v>
+        <v>17449574.4</v>
       </c>
       <c r="N3" t="n">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="O3" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P3" t="n">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="Q3" t="n">
-        <v>88</v>
+        <v>804</v>
+      </c>
+      <c r="R3" t="n">
+        <v>150</v>
+      </c>
+      <c r="S3" t="n">
+        <v>450</v>
+      </c>
+      <c r="T3" t="n">
+        <v>624</v>
       </c>
     </row>
     <row r="4">
@@ -649,40 +682,49 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00729575</v>
+        <v>0.006922463</v>
       </c>
       <c r="G4" t="n">
-        <v>0.010540256</v>
+        <v>0.009543039</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008018457</v>
+        <v>0.007782821</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003492949</v>
+        <v>0.003412902</v>
       </c>
       <c r="J4" t="n">
-        <v>17391616</v>
+        <v>17539072</v>
       </c>
       <c r="K4" t="n">
-        <v>17391616</v>
+        <v>17539072</v>
       </c>
       <c r="L4" t="n">
-        <v>17391616</v>
+        <v>17539072</v>
       </c>
       <c r="M4" t="n">
-        <v>17391616</v>
+        <v>17539072</v>
       </c>
       <c r="N4" t="n">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="O4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P4" t="n">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="Q4" t="n">
-        <v>88</v>
+        <v>804</v>
+      </c>
+      <c r="R4" t="n">
+        <v>150</v>
+      </c>
+      <c r="S4" t="n">
+        <v>450</v>
+      </c>
+      <c r="T4" t="n">
+        <v>624</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +746,49 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007304546</v>
+        <v>0.007216788</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01050971</v>
+        <v>0.009671730999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008079905</v>
+        <v>0.007695216</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003462612</v>
+        <v>0.003571284</v>
       </c>
       <c r="J5" t="n">
-        <v>17391616</v>
+        <v>17539072</v>
       </c>
       <c r="K5" t="n">
-        <v>17391616</v>
+        <v>17539072</v>
       </c>
       <c r="L5" t="n">
-        <v>17391616</v>
+        <v>17539072</v>
       </c>
       <c r="M5" t="n">
-        <v>17391616</v>
+        <v>17539072</v>
       </c>
       <c r="N5" t="n">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="O5" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P5" t="n">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="Q5" t="n">
-        <v>88</v>
+        <v>804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>150</v>
+      </c>
+      <c r="S5" t="n">
+        <v>450</v>
+      </c>
+      <c r="T5" t="n">
+        <v>624</v>
       </c>
     </row>
     <row r="6">
@@ -759,40 +810,49 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.007148593</v>
+        <v>0.007214482</v>
       </c>
       <c r="G6" t="n">
-        <v>0.010316851</v>
+        <v>0.009655913</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007938107999999999</v>
+        <v>0.008170286000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003424838</v>
+        <v>0.003284846</v>
       </c>
       <c r="J6" t="n">
-        <v>17391616</v>
+        <v>17539072</v>
       </c>
       <c r="K6" t="n">
-        <v>17391616</v>
+        <v>17539072</v>
       </c>
       <c r="L6" t="n">
-        <v>17391616</v>
+        <v>17539072</v>
       </c>
       <c r="M6" t="n">
-        <v>17391616</v>
+        <v>17539072</v>
       </c>
       <c r="N6" t="n">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="O6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P6" t="n">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="Q6" t="n">
-        <v>88</v>
+        <v>804</v>
+      </c>
+      <c r="R6" t="n">
+        <v>150</v>
+      </c>
+      <c r="S6" t="n">
+        <v>450</v>
+      </c>
+      <c r="T6" t="n">
+        <v>624</v>
       </c>
     </row>
     <row r="7">
@@ -814,40 +874,49 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007196649</v>
+        <v>0.007095941</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009791606</v>
+        <v>0.009317341999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007941347</v>
+        <v>0.007838319999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003359475</v>
+        <v>0.003275293</v>
       </c>
       <c r="J7" t="n">
-        <v>17391616</v>
+        <v>17539072</v>
       </c>
       <c r="K7" t="n">
-        <v>17391616</v>
+        <v>17539072</v>
       </c>
       <c r="L7" t="n">
-        <v>17391616</v>
+        <v>17539072</v>
       </c>
       <c r="M7" t="n">
-        <v>17391616</v>
+        <v>17539072</v>
       </c>
       <c r="N7" t="n">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="O7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P7" t="n">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="Q7" t="n">
-        <v>88</v>
+        <v>804</v>
+      </c>
+      <c r="R7" t="n">
+        <v>150</v>
+      </c>
+      <c r="S7" t="n">
+        <v>450</v>
+      </c>
+      <c r="T7" t="n">
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/SchemeIBMETR/SchemeAIBE.xlsx
+++ b/SchemeIBMETR/SchemeAIBE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,55 +481,35 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Setup (B)</t>
+          <t>elementOfZR (B)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Extract (B)</t>
+          <t>elementOfG1G2 (B)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Encrypt (B)</t>
+          <t>elementOfGT (B)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Decrypt (B)</t>
+          <t>mpk (B)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>elementOfZR (B)</t>
+          <t>msk (B)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>elementOfG1G2 (B)</t>
+          <t>Pvk_Id (B)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>elementOfGT (B)</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>mpk (B)</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>msk (B)</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Pvk_Id (B)</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -554,48 +534,36 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00764946</v>
+        <v>0.006624214</v>
       </c>
       <c r="G2" t="n">
-        <v>0.009722266</v>
+        <v>0.009117292000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.008199412</v>
+        <v>0.007465203</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003350691</v>
+        <v>0.003177521</v>
       </c>
       <c r="J2" t="n">
-        <v>17270374.4</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>17314406.4</v>
+        <v>90</v>
       </c>
       <c r="L2" t="n">
-        <v>17319116.8</v>
+        <v>174</v>
       </c>
       <c r="M2" t="n">
-        <v>17319116.8</v>
+        <v>804</v>
       </c>
       <c r="N2" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="O2" t="n">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="P2" t="n">
-        <v>174</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>150</v>
-      </c>
-      <c r="S2" t="n">
-        <v>450</v>
-      </c>
-      <c r="T2" t="n">
         <v>624</v>
       </c>
     </row>
@@ -618,48 +586,36 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007306656</v>
+        <v>0.006384294</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009689474</v>
+        <v>0.008915585</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007887475</v>
+        <v>0.007196676</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00330478</v>
+        <v>0.003135703</v>
       </c>
       <c r="J3" t="n">
-        <v>17444864</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>17444864</v>
+        <v>90</v>
       </c>
       <c r="L3" t="n">
-        <v>17449574.4</v>
+        <v>174</v>
       </c>
       <c r="M3" t="n">
-        <v>17449574.4</v>
+        <v>804</v>
       </c>
       <c r="N3" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="O3" t="n">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="P3" t="n">
-        <v>174</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>804</v>
-      </c>
-      <c r="R3" t="n">
-        <v>150</v>
-      </c>
-      <c r="S3" t="n">
-        <v>450</v>
-      </c>
-      <c r="T3" t="n">
         <v>624</v>
       </c>
     </row>
@@ -682,48 +638,36 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006922463</v>
+        <v>0.006463676</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009543039</v>
+        <v>0.008826666</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007782821</v>
+        <v>0.007310899</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003412902</v>
+        <v>0.003145109</v>
       </c>
       <c r="J4" t="n">
-        <v>17539072</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>17539072</v>
+        <v>90</v>
       </c>
       <c r="L4" t="n">
-        <v>17539072</v>
+        <v>174</v>
       </c>
       <c r="M4" t="n">
-        <v>17539072</v>
+        <v>804</v>
       </c>
       <c r="N4" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="O4" t="n">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="P4" t="n">
-        <v>174</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>804</v>
-      </c>
-      <c r="R4" t="n">
-        <v>150</v>
-      </c>
-      <c r="S4" t="n">
-        <v>450</v>
-      </c>
-      <c r="T4" t="n">
         <v>624</v>
       </c>
     </row>
@@ -746,48 +690,36 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007216788</v>
+        <v>0.006753732</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009671730999999999</v>
+        <v>0.009242468</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007695216</v>
+        <v>0.007471846</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003571284</v>
+        <v>0.003298725</v>
       </c>
       <c r="J5" t="n">
-        <v>17539072</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>17539072</v>
+        <v>90</v>
       </c>
       <c r="L5" t="n">
-        <v>17539072</v>
+        <v>174</v>
       </c>
       <c r="M5" t="n">
-        <v>17539072</v>
+        <v>804</v>
       </c>
       <c r="N5" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="O5" t="n">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="P5" t="n">
-        <v>174</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>150</v>
-      </c>
-      <c r="S5" t="n">
-        <v>450</v>
-      </c>
-      <c r="T5" t="n">
         <v>624</v>
       </c>
     </row>
@@ -810,48 +742,36 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.007214482</v>
+        <v>0.006366967</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009655913</v>
+        <v>0.008872035</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008170286000000001</v>
+        <v>0.007184217</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003284846</v>
+        <v>0.003074101</v>
       </c>
       <c r="J6" t="n">
-        <v>17539072</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>17539072</v>
+        <v>90</v>
       </c>
       <c r="L6" t="n">
-        <v>17539072</v>
+        <v>174</v>
       </c>
       <c r="M6" t="n">
-        <v>17539072</v>
+        <v>804</v>
       </c>
       <c r="N6" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="O6" t="n">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="P6" t="n">
-        <v>174</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>804</v>
-      </c>
-      <c r="R6" t="n">
-        <v>150</v>
-      </c>
-      <c r="S6" t="n">
-        <v>450</v>
-      </c>
-      <c r="T6" t="n">
         <v>624</v>
       </c>
     </row>
@@ -874,48 +794,36 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007095941</v>
+        <v>0.006892461</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009317341999999999</v>
+        <v>0.009320923</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007838319999999999</v>
+        <v>0.007673435</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003275293</v>
+        <v>0.003412548</v>
       </c>
       <c r="J7" t="n">
-        <v>17539072</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>17539072</v>
+        <v>90</v>
       </c>
       <c r="L7" t="n">
-        <v>17539072</v>
+        <v>174</v>
       </c>
       <c r="M7" t="n">
-        <v>17539072</v>
+        <v>804</v>
       </c>
       <c r="N7" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="O7" t="n">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="P7" t="n">
-        <v>174</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>804</v>
-      </c>
-      <c r="R7" t="n">
-        <v>150</v>
-      </c>
-      <c r="S7" t="n">
-        <v>450</v>
-      </c>
-      <c r="T7" t="n">
         <v>624</v>
       </c>
     </row>

--- a/SchemeIBMETR/SchemeAIBE.xlsx
+++ b/SchemeIBMETR/SchemeAIBE.xlsx
@@ -534,16 +534,16 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006624214</v>
+        <v>0.001698911</v>
       </c>
       <c r="G2" t="n">
-        <v>0.009117292000000001</v>
+        <v>0.006269554</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007465203</v>
+        <v>0.001831685</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003177521</v>
+        <v>1.6793e-05</v>
       </c>
       <c r="J2" t="n">
         <v>30</v>
@@ -586,16 +586,16 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006384294</v>
+        <v>0.001750331</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008915585</v>
+        <v>0.006237367</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007196676</v>
+        <v>0.001720456</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003135703</v>
+        <v>1.6858e-05</v>
       </c>
       <c r="J3" t="n">
         <v>30</v>
@@ -638,16 +638,16 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006463676</v>
+        <v>0.001660296</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008826666</v>
+        <v>0.0059926</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007310899</v>
+        <v>0.00171678</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003145109</v>
+        <v>1.3128e-05</v>
       </c>
       <c r="J4" t="n">
         <v>30</v>
@@ -690,16 +690,16 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006753732</v>
+        <v>0.001716136</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009242468</v>
+        <v>0.006209496</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007471846</v>
+        <v>0.001810456</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003298725</v>
+        <v>1.6259e-05</v>
       </c>
       <c r="J5" t="n">
         <v>30</v>
@@ -742,16 +742,16 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006366967</v>
+        <v>0.001738079</v>
       </c>
       <c r="G6" t="n">
-        <v>0.008872035</v>
+        <v>0.006184055</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007184217</v>
+        <v>0.001729711</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003074101</v>
+        <v>1.1584e-05</v>
       </c>
       <c r="J6" t="n">
         <v>30</v>
@@ -794,16 +794,16 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006892461</v>
+        <v>0.001627846</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009320923</v>
+        <v>0.005952421</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007673435</v>
+        <v>0.001677117</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003412548</v>
+        <v>9.709e-06</v>
       </c>
       <c r="J7" t="n">
         <v>30</v>

--- a/SchemeIBMETR/SchemeAIBE.xlsx
+++ b/SchemeIBMETR/SchemeAIBE.xlsx
@@ -534,16 +534,16 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001698911</v>
+        <v>0.00149686</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006269554</v>
+        <v>0.005463212</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001831685</v>
+        <v>0.001510868</v>
       </c>
       <c r="I2" t="n">
-        <v>1.6793e-05</v>
+        <v>6.458e-06</v>
       </c>
       <c r="J2" t="n">
         <v>30</v>
@@ -586,16 +586,16 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001750331</v>
+        <v>0.001519332</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006237367</v>
+        <v>0.005527137</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001720456</v>
+        <v>0.001607145</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6858e-05</v>
+        <v>6.748e-06</v>
       </c>
       <c r="J3" t="n">
         <v>30</v>
@@ -638,16 +638,16 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001660296</v>
+        <v>0.001528404</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0059926</v>
+        <v>0.005472116</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00171678</v>
+        <v>0.001515573</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3128e-05</v>
+        <v>6.458e-06</v>
       </c>
       <c r="J4" t="n">
         <v>30</v>
@@ -690,16 +690,16 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001716136</v>
+        <v>0.001499439</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006209496</v>
+        <v>0.00542643</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001810456</v>
+        <v>0.001535905</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6259e-05</v>
+        <v>7.645999999999999e-06</v>
       </c>
       <c r="J5" t="n">
         <v>30</v>
@@ -742,16 +742,16 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001738079</v>
+        <v>0.001488092</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006184055</v>
+        <v>0.005589468</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001729711</v>
+        <v>0.001516767</v>
       </c>
       <c r="I6" t="n">
-        <v>1.1584e-05</v>
+        <v>6.501e-06</v>
       </c>
       <c r="J6" t="n">
         <v>30</v>
@@ -794,16 +794,16 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001627846</v>
+        <v>0.001517571</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005952421</v>
+        <v>0.005582959</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001677117</v>
+        <v>0.001556827</v>
       </c>
       <c r="I7" t="n">
-        <v>9.709e-06</v>
+        <v>8.613999999999999e-06</v>
       </c>
       <c r="J7" t="n">
         <v>30</v>

--- a/SchemeIBMETR/SchemeAIBE.xlsx
+++ b/SchemeIBMETR/SchemeAIBE.xlsx
@@ -525,25 +525,25 @@
         <v>128</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00149686</v>
+        <v>0.001471707</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005463212</v>
+        <v>0.005443133</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001510868</v>
+        <v>0.001517139</v>
       </c>
       <c r="I2" t="n">
-        <v>6.458e-06</v>
+        <v>6.985e-06</v>
       </c>
       <c r="J2" t="n">
         <v>30</v>
@@ -577,25 +577,25 @@
         <v>160</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001519332</v>
+        <v>0.001484658</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005527137</v>
+        <v>0.005391239</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001607145</v>
+        <v>0.001507792</v>
       </c>
       <c r="I3" t="n">
-        <v>6.748e-06</v>
+        <v>7.14e-06</v>
       </c>
       <c r="J3" t="n">
         <v>30</v>
@@ -629,25 +629,25 @@
         <v>224</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001528404</v>
+        <v>0.001384899</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005472116</v>
+        <v>0.005072838</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001515573</v>
+        <v>0.001409972</v>
       </c>
       <c r="I4" t="n">
-        <v>6.458e-06</v>
+        <v>6.741e-06</v>
       </c>
       <c r="J4" t="n">
         <v>30</v>
@@ -681,25 +681,25 @@
         <v>256</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001499439</v>
+        <v>0.001384643</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00542643</v>
+        <v>0.005114513</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001535905</v>
+        <v>0.001424527</v>
       </c>
       <c r="I5" t="n">
-        <v>7.645999999999999e-06</v>
+        <v>6.872e-06</v>
       </c>
       <c r="J5" t="n">
         <v>30</v>
@@ -733,25 +733,25 @@
         <v>384</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001488092</v>
+        <v>0.001376616</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005589468</v>
+        <v>0.005068411</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001516767</v>
+        <v>0.001437197</v>
       </c>
       <c r="I6" t="n">
-        <v>6.501e-06</v>
+        <v>6.59e-06</v>
       </c>
       <c r="J6" t="n">
         <v>30</v>
@@ -785,25 +785,25 @@
         <v>512</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001517571</v>
+        <v>0.001396345</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005582959</v>
+        <v>0.005172148</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001556827</v>
+        <v>0.001439352</v>
       </c>
       <c r="I7" t="n">
-        <v>8.613999999999999e-06</v>
+        <v>6.778e-06</v>
       </c>
       <c r="J7" t="n">
         <v>30</v>
